--- a/results/section_2_2_table_2024.xlsx
+++ b/results/section_2_2_table_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -32,13 +32,10 @@
     <t xml:space="preserve">2010-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">2012-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022 (projection)</t>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 (projection)</t>
   </si>
   <si>
     <t xml:space="preserve">GHG</t>
@@ -53,13 +50,13 @@
     <t xml:space="preserve">39±5.1</t>
   </si>
   <si>
-    <t xml:space="preserve">45±5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55±5.3</t>
+    <t xml:space="preserve">46±5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53±5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55±5.4</t>
   </si>
   <si>
     <t xml:space="preserve">CO2-FFI</t>
@@ -80,15 +77,12 @@
     <t xml:space="preserve">35±2.8</t>
   </si>
   <si>
-    <t xml:space="preserve">36±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37±2.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">37±3</t>
   </si>
   <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <t xml:space="preserve">CO2-LULUCF</t>
   </si>
   <si>
@@ -107,15 +101,9 @@
     <t xml:space="preserve">5±3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8±3.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.3±3</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9±2.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH4</t>
   </si>
   <si>
@@ -125,16 +113,16 @@
     <t xml:space="preserve">6.5±2</t>
   </si>
   <si>
-    <t xml:space="preserve">7±2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7±2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4±2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6±2.6</t>
+    <t xml:space="preserve">7.2±2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1±2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8±2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9±2.7</t>
   </si>
   <si>
     <t xml:space="preserve">N2O</t>
@@ -146,43 +134,37 @@
     <t xml:space="preserve">2.1±1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2±1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4±1.5</t>
+    <t xml:space="preserve">2.3±1.4</t>
   </si>
   <si>
     <t xml:space="preserve">2.7±1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8±1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9±1.7</t>
+    <t xml:space="preserve">2.9±1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1±1.9</t>
   </si>
   <si>
     <t xml:space="preserve">F-gases</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58±0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78±0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77±0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1±0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5±0.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7±0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2±0.59</t>
+    <t xml:space="preserve">0.53±0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64±0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55±0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74±0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1±0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4±0.43</t>
   </si>
 </sst>
 </file>
@@ -539,175 +521,154 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2"/>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5"/>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6"/>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7"/>
+      <c r="H7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/section_2_2_table_2024.xlsx
+++ b/results/section_2_2_table_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">2010-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">2013-2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t xml:space="preserve">35±4.6</t>
   </si>
   <si>
-    <t xml:space="preserve">39±5.1</t>
+    <t xml:space="preserve">40±5.1</t>
   </si>
   <si>
     <t xml:space="preserve">46±5.2</t>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">53±5.5</t>
   </si>
   <si>
+    <t xml:space="preserve">54±5.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">55±5.4</t>
   </si>
   <si>
@@ -77,10 +83,13 @@
     <t xml:space="preserve">35±2.8</t>
   </si>
   <si>
+    <t xml:space="preserve">36±2.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">37±3</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">37±2.9</t>
   </si>
   <si>
     <t xml:space="preserve">CO2-LULUCF</t>
@@ -104,6 +113,9 @@
     <t xml:space="preserve">4.3±3</t>
   </si>
   <si>
+    <t xml:space="preserve">4±2.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH4</t>
   </si>
   <si>
@@ -122,6 +134,9 @@
     <t xml:space="preserve">8.8±2.6</t>
   </si>
   <si>
+    <t xml:space="preserve">8.8±2.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">9±2.7</t>
   </si>
   <si>
@@ -143,28 +158,34 @@
     <t xml:space="preserve">2.9±1.8</t>
   </si>
   <si>
+    <t xml:space="preserve">3±1.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.1±1.9</t>
   </si>
   <si>
     <t xml:space="preserve">F-gases</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53±0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64±0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55±0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74±0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1±0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4±0.43</t>
+    <t xml:space="preserve">0.57±0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73±0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67±0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9±0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3±0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5±0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7±0.51</t>
   </si>
 </sst>
 </file>
@@ -521,154 +542,175 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2"/>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5"/>
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6"/>
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7"/>
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/section_2_2_table_2024.xlsx
+++ b/results/section_2_2_table_2024.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">GHG</t>
   </si>
   <si>
-    <t xml:space="preserve">30±4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35±4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40±5.1</t>
+    <t xml:space="preserve">31±4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35±4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40±5.2</t>
   </si>
   <si>
     <t xml:space="preserve">46±5.2</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">CH4</t>
   </si>
   <si>
-    <t xml:space="preserve">6±1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5±2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2±2.2</t>
+    <t xml:space="preserve">6.3±1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9±2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5±2.3</t>
   </si>
   <si>
     <t xml:space="preserve">8.1±2.4</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8±1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1±1.2</t>
   </si>
   <si>
     <t xml:space="preserve">2.3±1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5±1.5</t>
   </si>
   <si>
     <t xml:space="preserve">2.7±1.6</t>

--- a/results/section_2_2_table_2024.xlsx
+++ b/results/section_2_2_table_2024.xlsx
@@ -167,25 +167,25 @@
     <t xml:space="preserve">F-gases</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57±0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73±0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67±0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9±0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3±0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5±0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7±0.51</t>
+    <t xml:space="preserve">0.21±0.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37±0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52±0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84±0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4±0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6±0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8±0.54</t>
   </si>
 </sst>
 </file>

--- a/results/section_2_2_table_2024.xlsx
+++ b/results/section_2_2_table_2024.xlsx
@@ -1,199 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\GHG-Emissions-Assessment\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1970-1979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1980-1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990-1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 (projection)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31±4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35±4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40±5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46±5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53±5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-FFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17±1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20±1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24±1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29±2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35±2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-LULUCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7±3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2±3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8±4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2±3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5±3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4±2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3±1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9±2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5±2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1±2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8±2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8±2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9±2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1±1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3±1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5±1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7±1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9±1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3±1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1±1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-gases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21±0.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37±0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52±0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84±0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4±0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6±0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8±0.54</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>1970-1979</t>
+  </si>
+  <si>
+    <t>1980-1989</t>
+  </si>
+  <si>
+    <t>1990-1999</t>
+  </si>
+  <si>
+    <t>2000-2009</t>
+  </si>
+  <si>
+    <t>2010-2019</t>
+  </si>
+  <si>
+    <t>2013-2022</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023 (projection)</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>30±4.2</t>
+  </si>
+  <si>
+    <t>35±4.7</t>
+  </si>
+  <si>
+    <t>40±5.2</t>
+  </si>
+  <si>
+    <t>45±5.2</t>
+  </si>
+  <si>
+    <t>53±5.5</t>
+  </si>
+  <si>
+    <t>53±5.4</t>
+  </si>
+  <si>
+    <t>55±5.3</t>
+  </si>
+  <si>
+    <t>CO2-FFI</t>
+  </si>
+  <si>
+    <t>17.2±1.4</t>
+  </si>
+  <si>
+    <t>20.1±1.6</t>
+  </si>
+  <si>
+    <t>23.3±1.9</t>
+  </si>
+  <si>
+    <t>28.5±2.3</t>
+  </si>
+  <si>
+    <t>34.8±2.8</t>
+  </si>
+  <si>
+    <t>35.3±2.8</t>
+  </si>
+  <si>
+    <t>36.4±2.9</t>
+  </si>
+  <si>
+    <t>CO2-LULUCF</t>
+  </si>
+  <si>
+    <t>4.7±3.3</t>
+  </si>
+  <si>
+    <t>5.2±3.7</t>
+  </si>
+  <si>
+    <t>5.8±4</t>
+  </si>
+  <si>
+    <t>5.2±3.6</t>
+  </si>
+  <si>
+    <t>5±3.5</t>
+  </si>
+  <si>
+    <t>4.3±3</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>6.3±1.9</t>
+  </si>
+  <si>
+    <t>6.9±2.1</t>
+  </si>
+  <si>
+    <t>7.5±2.3</t>
+  </si>
+  <si>
+    <t>8.1±2.4</t>
+  </si>
+  <si>
+    <t>8.8±2.6</t>
+  </si>
+  <si>
+    <t>8.8±2.7</t>
+  </si>
+  <si>
+    <t>9±2.7</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>2.1±1.2</t>
+  </si>
+  <si>
+    <t>2.3±1.4</t>
+  </si>
+  <si>
+    <t>2.5±1.5</t>
+  </si>
+  <si>
+    <t>2.7±1.6</t>
+  </si>
+  <si>
+    <t>2.9±1.8</t>
+  </si>
+  <si>
+    <t>3±1.8</t>
+  </si>
+  <si>
+    <t>3.1±1.9</t>
+  </si>
+  <si>
+    <t>F-gases</t>
+  </si>
+  <si>
+    <t>0.21±0.064</t>
+  </si>
+  <si>
+    <t>0.37±0.11</t>
+  </si>
+  <si>
+    <t>0.52±0.15</t>
+  </si>
+  <si>
+    <t>0.84±0.25</t>
+  </si>
+  <si>
+    <t>1.4±0.42</t>
+  </si>
+  <si>
+    <t>1.6±0.48</t>
+  </si>
+  <si>
+    <t>1.8±0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8±3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1±2.9 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,9 +232,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,14 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -571,9 +588,8 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -599,121 +615,118 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="I5"/>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="I6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>